--- a/sample/book.xlsx
+++ b/sample/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A0964\Desktop\MCTest\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9ADDBD-288A-4DFE-9032-B5A22EBE64DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001F3FD0-96D6-4798-ADD8-733F6B04CC28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30150" yWindow="1350" windowWidth="13830" windowHeight="7170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>topicA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>topicB</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -356,7 +360,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -368,7 +372,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/sample/book.xlsx
+++ b/sample/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A0964\Desktop\MCTest\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001F3FD0-96D6-4798-ADD8-733F6B04CC28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5802B4-D528-4DE2-A5F0-43292F912F5A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30150" yWindow="1350" windowWidth="13830" windowHeight="7170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30585" yWindow="1785" windowWidth="13830" windowHeight="7170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>topicA</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>topicB</t>
+    <t>AAAAA</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -372,6 +372,11 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>

--- a/sample/book.xlsx
+++ b/sample/book.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A0964\Desktop\MCTest\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A0964\Desktop\Test2\MCTest\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001F3FD0-96D6-4798-ADD8-733F6B04CC28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBA8286-773A-4BDC-847E-5E036C499046}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30150" yWindow="1350" windowWidth="13830" windowHeight="7170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30585" yWindow="1785" windowWidth="13830" windowHeight="7170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>topicA</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>topicB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBBBB</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -357,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -375,6 +379,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
